--- a/dustbin/test1d.xlsx
+++ b/dustbin/test1d.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="b" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="b" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,12 +27,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -47,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,14 +420,71 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>asdc</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -441,9 +504,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>abc</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>head</t>
         </is>
       </c>
     </row>

--- a/dustbin/test1d.xlsx
+++ b/dustbin/test1d.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="b" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,8 +26,11 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -39,8 +42,23 @@
         <fgColor rgb="00CCCCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <fgColor rgb="00CCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor rgb="00CCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkHorizontal">
+        <fgColor rgb="00CCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -48,13 +66,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="00000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -504,17 +558,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>head</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>head</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>head</t>
         </is>
